--- a/outputs/industry_counts.xlsx
+++ b/outputs/industry_counts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Household &amp; Personal products (company)</t>
+          <t>Household &amp; Personal Products</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Insurance - Diversified</t>
+          <t>Household &amp; Personal products (company)</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Insurance - Reinsurance</t>
+          <t>Insurance - Diversified</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Integrated Freight &amp; Logistics</t>
+          <t>Insurance - Reinsurance</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -618,37 +618,37 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Medical Care Facilities</t>
+          <t>Integrated Freight &amp; Logistics</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Real Estate Services</t>
+          <t>Medical Care Facilities</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Speciality Chemicals</t>
+          <t>Real Estate Services</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Technology, Software - Application</t>
+          <t>Semiconductors</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -658,20 +658,40 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Telecom Provider</t>
+          <t>Speciality Chemicals</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
+          <t>Technology, Software - Application</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Telecom Provider</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Utilities - Diversified</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B26" t="n">
         <v>1</v>
       </c>
     </row>
